--- a/cleaned_data/REE_sankey_nodes.xlsx
+++ b/cleaned_data/REE_sankey_nodes.xlsx
@@ -22,10 +22,10 @@
     <t>verticalsort</t>
   </si>
   <si>
-    <t>Neodymium (Nd) oxide</t>
+    <t>Neodymium</t>
   </si>
   <si>
-    <t>Dysprosium oxide</t>
+    <t>Dysprosium</t>
   </si>
   <si>
     <t>Boron</t>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="8"/>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="8"/>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="8"/>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="8"/>
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="8"/>
@@ -1554,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="8"/>
@@ -1567,7 +1567,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="8"/>
@@ -1580,7 +1580,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="8"/>
@@ -1593,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="15">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="8"/>
